--- a/Jean-Rémy DION/Nomenclature.xlsx
+++ b/Jean-Rémy DION/Nomenclature.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://stfelixlasalle-my.sharepoint.com/personal/jean-remy_dion_stfelixlasalle_fr/Documents/Documents/GitHub/SN2_SFL4Manitou_23/Documents/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://stfelixlasalle-my.sharepoint.com/personal/jean-remy_dion_stfelixlasalle_fr/Documents/Documents/GitHub/SN2_SFL4Manitou_23/Jean-Rémy DION/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="156" documentId="8_{34256D1A-387F-49E0-AA17-5F2A38CD2867}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{21CA6018-5074-4ED0-946A-E6FDEE4D60AA}"/>
+  <xr:revisionPtr revIDLastSave="160" documentId="8_{34256D1A-387F-49E0-AA17-5F2A38CD2867}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{460E9351-05D8-4C2A-9865-E64350961107}"/>
   <bookViews>
     <workbookView xWindow="-25320" yWindow="390" windowWidth="25440" windowHeight="15390" xr2:uid="{A6D686BF-90D5-45E2-8742-EE7D7C910ECC}"/>
   </bookViews>
@@ -503,7 +503,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -523,39 +523,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
@@ -568,7 +535,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
@@ -592,6 +559,33 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1347,10 +1341,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0129D009-AB3C-49A2-9C0B-FD70C9CF620F}">
-  <dimension ref="B1:I37"/>
+  <dimension ref="B1:I31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+    <sheetView tabSelected="1" topLeftCell="A11" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1365,54 +1359,54 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
-      <c r="F1" s="9"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="22"/>
+      <c r="F1" s="23"/>
     </row>
     <row r="2" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B2" s="10"/>
-      <c r="C2" s="11"/>
-      <c r="D2" s="11"/>
-      <c r="E2" s="11"/>
-      <c r="F2" s="12"/>
+      <c r="B2" s="24"/>
+      <c r="C2" s="25"/>
+      <c r="D2" s="25"/>
+      <c r="E2" s="25"/>
+      <c r="F2" s="26"/>
       <c r="G2" s="3"/>
       <c r="H2" s="3"/>
       <c r="I2" s="3"/>
     </row>
     <row r="3" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="13"/>
-      <c r="C3" s="14"/>
-      <c r="D3" s="14"/>
-      <c r="E3" s="14"/>
-      <c r="F3" s="15"/>
+      <c r="B3" s="27"/>
+      <c r="C3" s="28"/>
+      <c r="D3" s="28"/>
+      <c r="E3" s="28"/>
+      <c r="F3" s="29"/>
       <c r="G3" s="3"/>
       <c r="H3" s="3"/>
       <c r="I3" s="3"/>
     </row>
     <row r="4" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B4" s="18" t="s">
+      <c r="B4" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="19" t="s">
+      <c r="C4" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="19" t="s">
+      <c r="D4" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="E4" s="19" t="s">
+      <c r="E4" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="20" t="s">
+      <c r="F4" s="9" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="5" spans="2:9" ht="135" x14ac:dyDescent="0.25">
-      <c r="B5" s="21"/>
-      <c r="C5" s="22" t="s">
+      <c r="B5" s="10"/>
+      <c r="C5" s="11" t="s">
         <v>6</v>
       </c>
       <c r="D5" s="5" t="s">
@@ -1421,27 +1415,27 @@
       <c r="E5" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="F5" s="23">
+      <c r="F5" s="12">
         <v>702.9</v>
       </c>
     </row>
     <row r="6" spans="2:9" ht="165" x14ac:dyDescent="0.25">
-      <c r="B6" s="21"/>
+      <c r="B6" s="10"/>
       <c r="C6" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D6" s="22" t="s">
+      <c r="D6" s="11" t="s">
         <v>10</v>
       </c>
       <c r="E6" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="F6" s="23">
+      <c r="F6" s="12">
         <v>674.1</v>
       </c>
     </row>
     <row r="7" spans="2:9" ht="124.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="24"/>
+      <c r="B7" s="13"/>
       <c r="C7" s="1" t="s">
         <v>21</v>
       </c>
@@ -1451,12 +1445,12 @@
       <c r="E7" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="F7" s="23">
+      <c r="F7" s="12">
         <v>43</v>
       </c>
     </row>
     <row r="8" spans="2:9" ht="126" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="21"/>
+      <c r="B8" s="10"/>
       <c r="C8" s="1" t="s">
         <v>27</v>
       </c>
@@ -1466,12 +1460,12 @@
       <c r="E8" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="F8" s="23">
+      <c r="F8" s="12">
         <v>46.44</v>
       </c>
     </row>
     <row r="9" spans="2:9" ht="168.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="21"/>
+      <c r="B9" s="10"/>
       <c r="C9" s="1" t="s">
         <v>12</v>
       </c>
@@ -1481,12 +1475,12 @@
       <c r="E9" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="F9" s="23">
+      <c r="F9" s="12">
         <v>400</v>
       </c>
     </row>
     <row r="10" spans="2:9" ht="213.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="21"/>
+      <c r="B10" s="10"/>
       <c r="C10" s="1" t="s">
         <v>24</v>
       </c>
@@ -1496,12 +1490,12 @@
       <c r="E10" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="F10" s="23">
+      <c r="F10" s="12">
         <v>75.680000000000007</v>
       </c>
     </row>
     <row r="11" spans="2:9" ht="130.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="21"/>
+      <c r="B11" s="10"/>
       <c r="C11" s="1" t="s">
         <v>15</v>
       </c>
@@ -1511,12 +1505,12 @@
       <c r="E11" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="F11" s="23">
+      <c r="F11" s="12">
         <v>163.80000000000001</v>
       </c>
     </row>
     <row r="12" spans="2:9" ht="72.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="21"/>
+      <c r="B12" s="10"/>
       <c r="C12" s="1" t="s">
         <v>18</v>
       </c>
@@ -1526,198 +1520,54 @@
       <c r="E12" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="F12" s="23">
+      <c r="F12" s="12">
         <v>34.72</v>
       </c>
     </row>
     <row r="13" spans="2:9" ht="202.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="25"/>
-      <c r="C13" s="26" t="s">
+      <c r="B13" s="14"/>
+      <c r="C13" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="D13" s="26" t="s">
+      <c r="D13" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="E13" s="27" t="s">
+      <c r="E13" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="F13" s="28">
+      <c r="F13" s="17">
         <v>78</v>
       </c>
     </row>
     <row r="14" spans="2:9" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="31" t="s">
+      <c r="B14" s="20" t="s">
         <v>33</v>
       </c>
-      <c r="C14" s="29"/>
-      <c r="D14" s="29"/>
-      <c r="E14" s="29"/>
-      <c r="F14" s="30">
+      <c r="C14" s="18"/>
+      <c r="D14" s="18"/>
+      <c r="E14" s="18"/>
+      <c r="F14" s="19">
         <f>SUM(F5:F13)</f>
         <v>2218.64</v>
       </c>
     </row>
-    <row r="15" spans="2:9" ht="126" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="16"/>
-      <c r="C15" s="16"/>
-      <c r="D15" s="16"/>
-      <c r="E15" s="16"/>
-      <c r="F15" s="17"/>
-    </row>
-    <row r="16" spans="2:9" ht="126" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="16"/>
-      <c r="C16" s="16"/>
-      <c r="D16" s="16"/>
-      <c r="E16" s="16"/>
-      <c r="F16" s="17"/>
-    </row>
-    <row r="17" spans="2:6" ht="126" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="16"/>
-      <c r="C17" s="16"/>
-      <c r="D17" s="16"/>
-      <c r="E17" s="16"/>
-      <c r="F17" s="17"/>
-    </row>
-    <row r="18" spans="2:6" ht="126" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="16"/>
-      <c r="C18" s="16"/>
-      <c r="D18" s="16"/>
-      <c r="E18" s="16"/>
-      <c r="F18" s="17"/>
-    </row>
-    <row r="19" spans="2:6" ht="126" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="16"/>
-      <c r="C19" s="16"/>
-      <c r="D19" s="16"/>
-      <c r="E19" s="16"/>
-      <c r="F19" s="17"/>
-    </row>
-    <row r="20" spans="2:6" ht="126" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="16"/>
-      <c r="C20" s="16"/>
-      <c r="D20" s="16"/>
-      <c r="E20" s="16"/>
-      <c r="F20" s="17"/>
-    </row>
-    <row r="21" spans="2:6" ht="126" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="16"/>
-      <c r="C21" s="16"/>
-      <c r="D21" s="16"/>
-      <c r="E21" s="16"/>
-      <c r="F21" s="17"/>
-    </row>
-    <row r="22" spans="2:6" ht="126" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="16"/>
-      <c r="C22" s="16"/>
-      <c r="D22" s="16"/>
-      <c r="E22" s="16"/>
-      <c r="F22" s="17"/>
-    </row>
-    <row r="23" spans="2:6" ht="126" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="16"/>
-      <c r="C23" s="16"/>
-      <c r="D23" s="16"/>
-      <c r="E23" s="16"/>
-      <c r="F23" s="17"/>
-    </row>
-    <row r="24" spans="2:6" ht="126" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="16"/>
-      <c r="C24" s="16"/>
-      <c r="D24" s="16"/>
-      <c r="E24" s="16"/>
-      <c r="F24" s="17"/>
-    </row>
-    <row r="25" spans="2:6" ht="126" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="16"/>
-      <c r="C25" s="16"/>
-      <c r="D25" s="16"/>
-      <c r="E25" s="16"/>
-      <c r="F25" s="17"/>
-    </row>
-    <row r="26" spans="2:6" ht="126" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="16"/>
-      <c r="C26" s="16"/>
-      <c r="D26" s="16"/>
-      <c r="E26" s="16"/>
-      <c r="F26" s="17"/>
-    </row>
-    <row r="27" spans="2:6" ht="126" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="16"/>
-      <c r="C27" s="16"/>
-      <c r="D27" s="16"/>
-      <c r="E27" s="16"/>
-      <c r="F27" s="17"/>
-    </row>
-    <row r="28" spans="2:6" ht="126" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="16"/>
-      <c r="C28" s="16"/>
-      <c r="D28" s="16"/>
-      <c r="E28" s="16"/>
-      <c r="F28" s="17"/>
-    </row>
-    <row r="29" spans="2:6" ht="126" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B29" s="16"/>
-      <c r="C29" s="16"/>
-      <c r="D29" s="16"/>
-      <c r="E29" s="16"/>
-      <c r="F29" s="17"/>
-    </row>
-    <row r="30" spans="2:6" ht="126" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B30" s="16"/>
-      <c r="C30" s="16"/>
-      <c r="D30" s="16"/>
-      <c r="E30" s="16"/>
-      <c r="F30" s="17"/>
-    </row>
-    <row r="31" spans="2:6" ht="126" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B31" s="16"/>
-      <c r="C31" s="16"/>
-      <c r="D31" s="16"/>
-      <c r="E31" s="16"/>
-      <c r="F31" s="17"/>
-    </row>
-    <row r="32" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B32" s="16"/>
-      <c r="C32" s="16"/>
-      <c r="D32" s="16"/>
-      <c r="E32" s="16"/>
-      <c r="F32" s="17"/>
-    </row>
-    <row r="33" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B33" s="16"/>
-      <c r="C33" s="16"/>
-      <c r="D33" s="16"/>
-      <c r="E33" s="16"/>
-      <c r="F33" s="17"/>
-    </row>
-    <row r="34" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B34" s="16"/>
-      <c r="C34" s="16"/>
-      <c r="D34" s="16"/>
-      <c r="E34" s="16"/>
-      <c r="F34" s="17"/>
-    </row>
-    <row r="35" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B35" s="16"/>
-      <c r="C35" s="16"/>
-      <c r="D35" s="16"/>
-      <c r="E35" s="16"/>
-      <c r="F35" s="17"/>
-    </row>
-    <row r="36" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B36" s="16"/>
-      <c r="C36" s="16"/>
-      <c r="D36" s="16"/>
-      <c r="E36" s="16"/>
-      <c r="F36" s="17"/>
-    </row>
-    <row r="37" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B37" s="16"/>
-      <c r="C37" s="16"/>
-      <c r="D37" s="16"/>
-      <c r="E37" s="16"/>
-      <c r="F37" s="17"/>
-    </row>
+    <row r="15" spans="2:9" ht="126" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="16" spans="2:9" ht="126" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="17" ht="126" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="18" ht="126" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="19" ht="126" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="20" ht="126" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="21" ht="126" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="22" ht="126" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="23" ht="126" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="24" ht="126" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="25" ht="126" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="26" ht="126" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="27" ht="126" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="28" ht="126" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="29" ht="126" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="30" ht="126" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="31" ht="126" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="B1:F3"/>

--- a/Jean-Rémy DION/Nomenclature.xlsx
+++ b/Jean-Rémy DION/Nomenclature.xlsx
@@ -10,7 +10,7 @@
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="160" documentId="8_{34256D1A-387F-49E0-AA17-5F2A38CD2867}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{460E9351-05D8-4C2A-9865-E64350961107}"/>
   <bookViews>
-    <workbookView xWindow="-25320" yWindow="390" windowWidth="25440" windowHeight="15390" xr2:uid="{A6D686BF-90D5-45E2-8742-EE7D7C910ECC}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{A6D686BF-90D5-45E2-8742-EE7D7C910ECC}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -1343,8 +1343,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0129D009-AB3C-49A2-9C0B-FD70C9CF620F}">
   <dimension ref="B1:I31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Jean-Rémy DION/Nomenclature.xlsx
+++ b/Jean-Rémy DION/Nomenclature.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://stfelixlasalle-my.sharepoint.com/personal/jean-remy_dion_stfelixlasalle_fr/Documents/Documents/GitHub/SN2_SFL4Manitou_23/Jean-Rémy DION/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="160" documentId="8_{34256D1A-387F-49E0-AA17-5F2A38CD2867}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{460E9351-05D8-4C2A-9865-E64350961107}"/>
+  <xr:revisionPtr revIDLastSave="170" documentId="8_{34256D1A-387F-49E0-AA17-5F2A38CD2867}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6CEF96B4-5255-441C-A8DC-21BB850AD917}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{A6D686BF-90D5-45E2-8742-EE7D7C910ECC}"/>
+    <workbookView xWindow="-25320" yWindow="390" windowWidth="25440" windowHeight="15390" xr2:uid="{A6D686BF-90D5-45E2-8742-EE7D7C910ECC}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -62,51 +62,16 @@
     <t>Contrôleur modulaire X90</t>
   </si>
   <si>
-    <t>Processeur : ARM  Cortex-A9-650 | 650MHZ
-RAM : 256 MB DDR3 SDRAM
-Application memory : 1 GB flash memory
-Interfaces : 
-    - 1x Ethernet
-    - USB
-    - 3x Bus CAN
-    - 1x POWERLINK</t>
-  </si>
-  <si>
     <t>6PFT50.156B-10B</t>
   </si>
   <si>
     <t>Ecran tactile FT50</t>
   </si>
   <si>
-    <t>Processeur : ARM  Cortex-A9 4 cœurs | 800 MHz
-DRAM : 2GB
-Flash : 512 MB
-Interfaces : 
-    - 1x Ethernet
-    - 1x USB 2.0
-Diagonale : 15,6 Pouces
-Résolution : 1366 x 768
-Couleurs : 16 millions
-Rétroéclairage : LED</t>
-  </si>
-  <si>
     <t>4PP045.0571-062</t>
   </si>
   <si>
     <t>Power Panel 45</t>
-  </si>
-  <si>
-    <t>Processeur : ELaN SC520 | 100 MHz
-DRAM : 64MB
-SRaM : 32 KB 
-Interfaces : 
-    - 1x Ethernet
-    - 2x USB 2.0
-    - 1x X2X Link Master
-Diagonale : 5,7 Pouces
-Résolution : 203 x 145 mm
-Couleurs : 256
-Rétroéclairage : LCD</t>
   </si>
   <si>
     <t>X90CA100.02-00</t>
@@ -187,6 +152,42 @@
   </si>
   <si>
     <t>Total</t>
+  </si>
+  <si>
+    <t>Processeur : ARM  Cortex-A9 4 cœurs | 800 MHz
+DRAM : 2GB
+Flash : 512 MB
+Ports : 
+    - 1x Ethernet
+    - 1x USB 2.0
+Diagonale : 15,6 Pouces
+Résolution : 1366 x 768
+Couleurs : 16 millions
+Rétroéclairage : LED</t>
+  </si>
+  <si>
+    <t>Processeur : ARM  Cortex-A9-650 | 650MHZ
+RAM : 256 MB DDR3 SDRAM
+Application memory : 1 GB flash memory
+Ports : 
+    - 1x Ethernet
+    - USB
+    - 3x Bus CAN
+    - 1x POWERLINK</t>
+  </si>
+  <si>
+    <t>Processeur : ELaN SC520 | 100 MHz
+DRAM : 64MB
+SRaM : 32 KB 
+Ports : 
+    - 1x Ethernet
+    - 2x USB 2.0
+    - 1x X2X Link Master
+Diagonale : 5,7 Pouces
+Résolution : 320 x 240 px (QVGA)
+Dimensions : (L x H x P) : 203 x 145 x 55 mm
+Couleurs : 256
+Rétroéclairage : LCD</t>
   </si>
 </sst>
 </file>
@@ -1343,8 +1344,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0129D009-AB3C-49A2-9C0B-FD70C9CF620F}">
   <dimension ref="B1:I31"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1413,7 +1414,7 @@
         <v>7</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>8</v>
+        <v>32</v>
       </c>
       <c r="F5" s="12">
         <v>702.9</v>
@@ -1422,13 +1423,13 @@
     <row r="6" spans="2:9" ht="165" x14ac:dyDescent="0.25">
       <c r="B6" s="10"/>
       <c r="C6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="D6" s="11" t="s">
-        <v>10</v>
-      </c>
       <c r="E6" s="4" t="s">
-        <v>11</v>
+        <v>31</v>
       </c>
       <c r="F6" s="12">
         <v>674.1</v>
@@ -1437,13 +1438,13 @@
     <row r="7" spans="2:9" ht="124.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="13"/>
       <c r="C7" s="1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="F7" s="12">
         <v>43</v>
@@ -1452,28 +1453,28 @@
     <row r="8" spans="2:9" ht="126" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="10"/>
       <c r="C8" s="1" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="F8" s="12">
         <v>46.44</v>
       </c>
     </row>
-    <row r="9" spans="2:9" ht="168.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:9" ht="195" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="10"/>
       <c r="C9" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>14</v>
+        <v>33</v>
       </c>
       <c r="F9" s="12">
         <v>400</v>
@@ -1482,13 +1483,13 @@
     <row r="10" spans="2:9" ht="213.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="10"/>
       <c r="C10" s="1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="F10" s="12">
         <v>75.680000000000007</v>
@@ -1497,13 +1498,13 @@
     <row r="11" spans="2:9" ht="130.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="10"/>
       <c r="C11" s="1" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="F11" s="12">
         <v>163.80000000000001</v>
@@ -1512,13 +1513,13 @@
     <row r="12" spans="2:9" ht="72.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="10"/>
       <c r="C12" s="1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="F12" s="12">
         <v>34.72</v>
@@ -1527,13 +1528,13 @@
     <row r="13" spans="2:9" ht="202.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B13" s="14"/>
       <c r="C13" s="15" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D13" s="15" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="E13" s="16" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="F13" s="17">
         <v>78</v>
@@ -1541,7 +1542,7 @@
     </row>
     <row r="14" spans="2:9" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B14" s="20" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C14" s="18"/>
       <c r="D14" s="18"/>
